--- a/data/trans_bre/P25_10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>165,35%</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -629,7 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 12,17</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,26</t>
+          <t>0,0; 15,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,81</t>
+          <t>0,0; 8,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 16,58</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,19</t>
+          <t>21,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1840,98%</t>
+          <t>27,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>702,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>865,5%</t>
+          <t>335,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,30 +768,40 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 38,62</t>
+          <t>12,14; 34,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 22,17</t>
+          <t>-0,28; 18,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 20,46</t>
+          <t>7,1; 28,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>16,13; 43,34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,67</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>558,67%</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>740,55%</t>
+          <t>322,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>309,26%</t>
+          <t>425,98%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>376,74%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>280,68%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 27,39</t>
+          <t>7,76; 26,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 26,58</t>
+          <t>6,7; 23,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 19,09</t>
+          <t>3,53; 19,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>120,7; 1684,6</t>
+          <t>4,92; 25,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>148,26; 2987,18</t>
+          <t>53,49; 1487,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,91; 1569,89</t>
+          <t>35,47; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12,61; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28,28; 1215,3</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,57</t>
+          <t>28,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,43</t>
+          <t>20,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>365,82%</t>
+          <t>13,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>180,02%</t>
+          <t>324,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>113,44%</t>
+          <t>281,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>161,59%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 32,71</t>
+          <t>16,64; 38,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 24,17</t>
+          <t>10,42; 30,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 21,08</t>
+          <t>6,21; 27,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149,67; 1030,01</t>
+          <t>1,24; 26,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,36; 430,52</t>
+          <t>114,62; 961,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,04; 277,21</t>
+          <t>78,34; 989,27</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31,7; 507,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 229,53</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,04</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,25</t>
+          <t>20,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>160,71%</t>
+          <t>25,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>218,13%</t>
+          <t>125,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>241,54%</t>
+          <t>189,54%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>247,93%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>287,51%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 20,88</t>
+          <t>-2,23; 23,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 29,15</t>
+          <t>4,41; 33,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 29,34</t>
+          <t>6,67; 35,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,98; 481,67</t>
+          <t>11,6; 41,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,05; 602,39</t>
+          <t>-29,5; 567,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,74; 605,06</t>
+          <t>13,91; 643,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36,9; 881,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56,38; 973,17</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,91</t>
+          <t>30,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>39,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,79</t>
+          <t>32,29</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>192,06%</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>159,67%</t>
+          <t>164,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>258,97%</t>
+          <t>481,73%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>313,11%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>115,83%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 40,4</t>
+          <t>8,46; 49,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 31,66</t>
+          <t>20,05; 56,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 34,58</t>
+          <t>14,32; 49,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,82; 470,64</t>
+          <t>0,62; 48,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,42; 495,98</t>
+          <t>23,58; 545,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,82; 760,09</t>
+          <t>84,94; 2220,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65,93; 1681,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 358,69</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>19,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>352,69%</t>
+          <t>20,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>297,96%</t>
+          <t>296,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>241,85%</t>
+          <t>322,65%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>313,02%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>231,02%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,06; 24,04</t>
+          <t>14,13; 24,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,36; 19,57</t>
+          <t>12,42; 21,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 17,6</t>
+          <t>11,18; 20,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>214,18; 560,93</t>
+          <t>14,62; 25,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>184,8; 497,88</t>
+          <t>156,29; 579,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>137,97; 405,87</t>
+          <t>168,5; 614,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>155,34; 604,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>125,38; 401,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,36 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>6.708305567364492</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.670650651933374</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.994754213968103</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.200064457507812</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +664,144 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,55</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.28067207474485</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.05727648965019</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.648125045544685</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.94729630225525</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>21,3</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,7</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>27,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>335,44%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>12,14; 34,8</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 18,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 28,76</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>16,13; 43,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>23.42602436246336</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.294769125372682</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.58556003709328</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>27.01538282154694</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.973666656562203</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>16,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>15,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,8</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>322,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>425,98%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>376,74%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>280,68%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>13.31350375798947</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.7895172639661594</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.77499991296646</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>16.04417586493447</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 26,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 23,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 19,74</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,92; 25,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>53,49; 1487,72</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>35,47; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>12,61; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>28,28; 1215,3</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>38.61544176198107</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.13124046092182</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>28.03890618678881</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>43.18423325225879</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +809,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>28,03</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>20,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,95</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,89</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>324,95%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>281,51%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>161,59%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>79,55%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.19819829200812</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.16657125027699</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.45212084927314</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>15.61047916361114</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>3.65615346167135</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>5.142322176474329</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>3.561825465966448</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>3.056460504312437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>16,64; 38,8</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10,42; 30,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 27,08</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 26,93</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>114,62; 961,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>78,34; 989,27</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>31,7; 507,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 229,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>8.342482190783688</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.738601735989707</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.873464207716115</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5.152596948126698</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.6608762069923371</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.6092890247378128</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.06135354472463785</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.3337096646441028</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.15104344571765</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>25.22243040525588</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.3555690112083</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>25.22864320859141</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>17.28733920595799</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>13.26240136245815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>18,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>20,82</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>25,88</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>125,84%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>189,54%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>247,93%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>287,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 23,39</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 33,44</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,67; 35,67</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>11,6; 41,03</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-29,5; 567,07</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>13,91; 643,89</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>36,9; 881,65</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>56,38; 973,17</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>27.15961359874138</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>20.78229233164314</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>15.621241667864</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>14.58104446419433</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.148249443194837</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.084526557946173</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.541259243407506</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8455893452380518</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>30,33</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>39,74</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>32,29</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>27,9</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>164,45%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>481,73%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>313,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>115,83%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>16.44783811292366</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>11.0412751689369</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>5.524102775161202</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.152140239207227</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.096839282226961</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.9154374929154109</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.2845491611879541</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.06576711728833426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 49,21</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>20,05; 56,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,32; 49,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 48,48</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>23,58; 545,56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>84,94; 2220,91</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>65,93; 1681,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 358,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>38.4739324118947</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>31.16151767068949</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>27.25580953345696</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>27.21723579293698</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>9.422045327974841</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>10.5435033643016</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.329953495306784</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.339261153778119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1005,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>19,15</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>16,85</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>15,62</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>20,34</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>296,74%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>322,65%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>313,02%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>231,02%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>9.739396803130306</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>18.70033899360214</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>19.80729795445797</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>25.34498663517059</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>1.060918455003828</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.861868632061663</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>2.232105703215777</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>2.893604712855055</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>14,13; 24,55</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 21,36</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>11,18; 20,22</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,62; 25,99</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>156,29; 579,03</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>168,5; 614,3</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>155,34; 604,64</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>125,38; 401,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.144936294753504</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>4.026420936686072</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>5.644571835958567</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>11.35082278762516</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.3847529420556697</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.08301714980211605</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.2762206805274703</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.6063292942217098</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>23.74145328953143</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>33.93455423906763</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>35.0465698925878</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>40.14564791993355</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>5.481333594231415</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>6.55542576835164</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>8.545906852840009</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>9.876500875082979</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>30.31306052773689</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>40.4014969607659</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>33.36693571267409</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>26.43116103638489</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.646782349762707</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>5.010269702165597</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>2.901556389116791</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.059286206043983</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>8.361749118669056</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>20.11659561810806</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>12.97694823859643</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-1.574690596199777</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.2584537034854055</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.9368604905143442</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.4790348762947599</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.03365928233495992</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>49.5984883849535</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>57.92390745101122</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>52.15370979976045</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>47.34444538221381</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>5.698593559316354</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>22.50963040465447</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>16.92442862520042</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>3.440711265662457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>19.57246879123015</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>17.38015492460659</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>15.37414075976512</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>20.19423549674283</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>3.020282778679517</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>3.434883237421076</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>2.932266101619096</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>2.340445272750133</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>14.37055398718334</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>12.9237009077658</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>10.63458445010954</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>14.76291172397073</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>1.522675669954056</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>1.807367049984527</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>1.339284468118719</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>1.275412961551316</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>25.38461357992558</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>21.96792774623133</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>20.09912411466187</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>26.01496272058457</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>5.838076466552209</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>6.48571773656153</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>5.82337519365784</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>4.049635127523617</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1303,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
